--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4158.103490816383</v>
+        <v>-8685.430989973454</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="D4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="E4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="F4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="G4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="H4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="I4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="J4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="K4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="L4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="M4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="N4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="O4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="P4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27506.69434451598</v>
+        <v>-28252.22972342769</v>
       </c>
       <c r="C6" t="n">
-        <v>-27506.69434451598</v>
+        <v>-28252.22972342769</v>
       </c>
       <c r="D6" t="n">
-        <v>-27506.69434451598</v>
+        <v>-28252.22972342769</v>
       </c>
       <c r="E6" t="n">
-        <v>-102717.66712712</v>
+        <v>-103159.47521707</v>
       </c>
       <c r="F6" t="n">
-        <v>30382.33287288005</v>
+        <v>29940.52478292996</v>
       </c>
       <c r="G6" t="n">
-        <v>30382.33287288005</v>
+        <v>29940.52478292996</v>
       </c>
       <c r="H6" t="n">
-        <v>30382.33287288005</v>
+        <v>29940.52478292996</v>
       </c>
       <c r="I6" t="n">
-        <v>30382.33287288005</v>
+        <v>29940.52478292996</v>
       </c>
       <c r="J6" t="n">
-        <v>30382.33287288005</v>
+        <v>29940.52478292996</v>
       </c>
       <c r="K6" t="n">
-        <v>30382.33287288005</v>
+        <v>29940.52478292996</v>
       </c>
       <c r="L6" t="n">
-        <v>30382.33287288005</v>
+        <v>29940.52478292996</v>
       </c>
       <c r="M6" t="n">
-        <v>30382.33287288005</v>
+        <v>29940.52478292996</v>
       </c>
       <c r="N6" t="n">
-        <v>30382.33287288005</v>
+        <v>29940.52478292996</v>
       </c>
       <c r="O6" t="n">
-        <v>30382.33287288005</v>
+        <v>29940.52478292996</v>
       </c>
       <c r="P6" t="n">
-        <v>30382.33287288005</v>
+        <v>29940.52478292996</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8685.430989973454</v>
+        <v>5040.927147444727</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26319,7 @@
         <v>64504.44331886782</v>
       </c>
       <c r="D2" t="n">
-        <v>64504.44331886782</v>
+        <v>64504.44331886783</v>
       </c>
       <c r="E2" t="n">
         <v>68592.32888991815</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26525,43 +26527,43 @@
         <v>-28252.22972342769</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342769</v>
+        <v>-28252.22972342768</v>
       </c>
       <c r="E6" t="n">
-        <v>-103159.47521707</v>
+        <v>-103159.4752170701</v>
       </c>
       <c r="F6" t="n">
-        <v>29940.52478292996</v>
+        <v>29940.52478292997</v>
       </c>
       <c r="G6" t="n">
-        <v>29940.52478292996</v>
+        <v>29940.52478292997</v>
       </c>
       <c r="H6" t="n">
-        <v>29940.52478292996</v>
+        <v>29940.52478292997</v>
       </c>
       <c r="I6" t="n">
-        <v>29940.52478292996</v>
+        <v>29940.52478292997</v>
       </c>
       <c r="J6" t="n">
-        <v>29940.52478292996</v>
+        <v>29940.52478292997</v>
       </c>
       <c r="K6" t="n">
-        <v>29940.52478292996</v>
+        <v>29940.52478292997</v>
       </c>
       <c r="L6" t="n">
-        <v>29940.52478292996</v>
+        <v>29940.52478292997</v>
       </c>
       <c r="M6" t="n">
-        <v>29940.52478292996</v>
+        <v>29940.52478292997</v>
       </c>
       <c r="N6" t="n">
-        <v>29940.52478292996</v>
+        <v>29940.52478292997</v>
       </c>
       <c r="O6" t="n">
-        <v>29940.52478292996</v>
+        <v>29940.52478292997</v>
       </c>
       <c r="P6" t="n">
-        <v>29940.52478292996</v>
+        <v>29940.52478292997</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5040.927147444727</v>
+        <v>-120068.971650032</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>64504.44331886782</v>
       </c>
       <c r="C2" t="n">
+        <v>64504.44331886783</v>
+      </c>
+      <c r="D2" t="n">
         <v>64504.44331886782</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64504.44331886783</v>
       </c>
       <c r="E2" t="n">
         <v>68592.32888991815</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342769</v>
+        <v>-43402.90369346246</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342769</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346246</v>
       </c>
       <c r="E6" t="n">
-        <v>-103159.4752170701</v>
+        <v>-117969.492056184</v>
       </c>
       <c r="F6" t="n">
-        <v>29940.52478292997</v>
+        <v>15130.50794381606</v>
       </c>
       <c r="G6" t="n">
-        <v>29940.52478292997</v>
+        <v>15130.50794381606</v>
       </c>
       <c r="H6" t="n">
-        <v>29940.52478292997</v>
+        <v>15130.50794381606</v>
       </c>
       <c r="I6" t="n">
-        <v>29940.52478292997</v>
+        <v>15130.50794381606</v>
       </c>
       <c r="J6" t="n">
-        <v>29940.52478292997</v>
+        <v>15130.50794381606</v>
       </c>
       <c r="K6" t="n">
-        <v>29940.52478292997</v>
+        <v>15130.50794381606</v>
       </c>
       <c r="L6" t="n">
-        <v>29940.52478292997</v>
+        <v>15130.50794381606</v>
       </c>
       <c r="M6" t="n">
-        <v>29940.52478292997</v>
+        <v>15130.50794381606</v>
       </c>
       <c r="N6" t="n">
-        <v>29940.52478292997</v>
+        <v>15130.50794381606</v>
       </c>
       <c r="O6" t="n">
-        <v>29940.52478292997</v>
+        <v>15130.50794381606</v>
       </c>
       <c r="P6" t="n">
-        <v>29940.52478292997</v>
+        <v>15130.50794381606</v>
       </c>
     </row>
   </sheetData>
